--- a/FishLandings/household groups/statistics/Biomass Taken Home (kg)_output.xlsx
+++ b/FishLandings/household groups/statistics/Biomass Taken Home (kg)_output.xlsx
@@ -422,10 +422,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.967163</v>
+        <v>2.338088</v>
       </c>
       <c r="E2">
-        <v>0.33032</v>
+        <v>0.132947</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>6.674892</v>
+        <v>10.704165</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>4.031173</v>
+        <v>15.627918</v>
       </c>
       <c r="E3">
-        <v>0.024081</v>
+        <v>6e-06</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>39.739647</v>
+        <v>16.096058</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>0.345127</v>
+        <v>0.067159</v>
       </c>
       <c r="H5">
-        <v>-0.8712839999999999</v>
+        <v>-0.719893</v>
       </c>
       <c r="I5">
-        <v>1.561538</v>
+        <v>0.85421</v>
       </c>
       <c r="J5">
-        <v>0.7726420000000001</v>
+        <v>0.976776</v>
       </c>
     </row>
     <row r="6">
@@ -514,13 +514,13 @@
         <v>0.991187</v>
       </c>
       <c r="H6">
-        <v>-0.18253</v>
+        <v>0.235788</v>
       </c>
       <c r="I6">
-        <v>2.164903</v>
+        <v>1.746585</v>
       </c>
       <c r="J6">
-        <v>0.113102</v>
+        <v>0.007312</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>0.646059</v>
+        <v>0.924028</v>
       </c>
       <c r="H7">
-        <v>-0.014252</v>
+        <v>0.491411</v>
       </c>
       <c r="I7">
-        <v>1.306371</v>
+        <v>1.356645</v>
       </c>
       <c r="J7">
-        <v>0.05635</v>
+        <v>1.4e-05</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/statistics/Biomass Taken Home (kg)_output.xlsx
+++ b/FishLandings/household groups/statistics/Biomass Taken Home (kg)_output.xlsx
@@ -416,16 +416,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.800723</v>
+        <v>1.518349</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2.338088</v>
+        <v>4.327757</v>
       </c>
       <c r="E2">
-        <v>0.132947</v>
+        <v>0.040618</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>10.704165</v>
+        <v>15.268191</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>15.627918</v>
+        <v>21.759488</v>
       </c>
       <c r="E3">
-        <v>6e-06</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>16.096058</v>
+        <v>28.768867</v>
       </c>
       <c r="C4">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>0.067159</v>
+        <v>0.08558</v>
       </c>
       <c r="H5">
-        <v>-0.719893</v>
+        <v>-0.521763</v>
       </c>
       <c r="I5">
-        <v>0.85421</v>
+        <v>0.692923</v>
       </c>
       <c r="J5">
-        <v>0.976776</v>
+        <v>0.939591</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>0.991187</v>
+        <v>0.945603</v>
       </c>
       <c r="H6">
-        <v>0.235788</v>
+        <v>0.377631</v>
       </c>
       <c r="I6">
-        <v>1.746585</v>
+        <v>1.513574</v>
       </c>
       <c r="J6">
-        <v>0.007312</v>
+        <v>0.000441</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>0.924028</v>
+        <v>0.860022</v>
       </c>
       <c r="H7">
-        <v>0.491411</v>
+        <v>0.513164</v>
       </c>
       <c r="I7">
-        <v>1.356645</v>
+        <v>1.206881</v>
       </c>
       <c r="J7">
-        <v>1.4e-05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/statistics/Biomass Taken Home (kg)_output.xlsx
+++ b/FishLandings/household groups/statistics/Biomass Taken Home (kg)_output.xlsx
@@ -416,16 +416,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.518349</v>
+        <v>0.800723</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>4.327757</v>
+        <v>2.338088</v>
       </c>
       <c r="E2">
-        <v>0.040618</v>
+        <v>0.132947</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>15.268191</v>
+        <v>10.704165</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>21.759488</v>
+        <v>15.627918</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>6e-06</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>28.768867</v>
+        <v>16.096058</v>
       </c>
       <c r="C4">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>0.08558</v>
+        <v>0.067159</v>
       </c>
       <c r="H5">
-        <v>-0.521763</v>
+        <v>-0.719893</v>
       </c>
       <c r="I5">
-        <v>0.692923</v>
+        <v>0.85421</v>
       </c>
       <c r="J5">
-        <v>0.939591</v>
+        <v>0.976776</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>0.945603</v>
+        <v>0.991187</v>
       </c>
       <c r="H6">
-        <v>0.377631</v>
+        <v>0.235788</v>
       </c>
       <c r="I6">
-        <v>1.513574</v>
+        <v>1.746585</v>
       </c>
       <c r="J6">
-        <v>0.000441</v>
+        <v>0.007312</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>0.860022</v>
+        <v>0.924028</v>
       </c>
       <c r="H7">
-        <v>0.513164</v>
+        <v>0.491411</v>
       </c>
       <c r="I7">
-        <v>1.206881</v>
+        <v>1.356645</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.4e-05</v>
       </c>
     </row>
   </sheetData>
